--- a/medicine/Pharmacie/Cissus/Cissus.xlsx
+++ b/medicine/Pharmacie/Cissus/Cissus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cissus est un genre de plantes grimpantes de la famille des Vitaceae (à laquelle appartient aussi la vigne). Elles sont d'origines géographiques très diverses, en majorité de régions tropicales.
 Parmi les espèces les plus répandues, Cissus antarctica et Cissus rhombifolia sont des plantes d'appartement.
 Les cissus ont généralement des fleurs 4-mères (alors que celles des Vitis sont 5-mères) en cymes ombelliformes. 
 Cissus quadrangularis est une plante médicinale connue depuis longtemps pour soigner les ligaments et les tendons. Elle favorise aussi la croissance des os après des fractures ou en cas d'arthrite 
-[1],[2].
+,.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il existe environ 80 espèces de Cissus[3], parmi lesquelles on trouve :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il existe environ 80 espèces de Cissus, parmi lesquelles on trouve :
 Cissus antarctica
 Cissus arborea
 Cissus bipinnata
@@ -534,7 +548,7 @@
 Cissus tuberculata Jacq.
 Cissus tuberosa
 Cissus verticillata (L.) D.H. Nicols. &amp; Jarvis, liane molle
-Selon ITIS      (21 avr. 2010)[4] :
+Selon ITIS      (21 avr. 2010) :
 Cissus erosa  L.C. Rich.
 Cissus intermedia  A. Rich.
 Cissus nodosa  Blume
@@ -545,7 +559,7 @@
 Cissus trifoliata  (L.) L.
 Cissus tuberculata  Jacq.
 Cissus verticillata  (L.) D.H. Nicols. &amp; Jarvis
-Selon NCBI  (21 avr. 2010)[5] :
+Selon NCBI  (21 avr. 2010) :
 Cissus adnata
 Cissus albiporcata
 Cissus amazonica
